--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E7537-D891-9345-B521-5207E3CE984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAE635-2CDA-BC4B-ADBF-1C221A8E5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -28,52 +28,89 @@
     <t>slug</t>
   </si>
   <si>
+    <t>Superadmin</t>
+  </si>
+  <si>
     <t>superadmin</t>
   </si>
   <si>
+    <t>Administrator</t>
+  </si>
+  <si>
     <t>administrator</t>
   </si>
   <si>
-    <t>PPK</t>
-  </si>
-  <si>
-    <t>KASUBAG</t>
-  </si>
-  <si>
-    <t>KEPALA</t>
-  </si>
-  <si>
-    <t>POKJA</t>
-  </si>
-  <si>
-    <t>ppk</t>
-  </si>
-  <si>
-    <t>kasubag</t>
-  </si>
-  <si>
-    <t>pokja</t>
-  </si>
-  <si>
-    <t>ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>SUPERADMIN</t>
-  </si>
-  <si>
-    <t>kabag</t>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>Thirdparty</t>
+  </si>
+  <si>
+    <t>thirdparty</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>Ketua LKD</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>Ketua Panitia</t>
+  </si>
+  <si>
+    <t>committee-chairman</t>
+  </si>
+  <si>
+    <t>Anggota</t>
+  </si>
+  <si>
+    <t>committee-member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -428,51 +466,91 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAE635-2CDA-BC4B-ADBF-1C221A8E5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F902DFB-8B54-C54C-8272-BE13032C148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12200" yWindow="1820" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -52,79 +52,40 @@
     <t>thirdparty</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>auditor</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>Ketua LKD</t>
-  </si>
-  <si>
-    <t>chairman</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>Participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>Ketua Panitia</t>
-  </si>
-  <si>
-    <t>committee-chairman</t>
-  </si>
-  <si>
-    <t>Anggota</t>
-  </si>
-  <si>
-    <t>committee-member</t>
+    <t>ppk</t>
+  </si>
+  <si>
+    <t>kasubag</t>
+  </si>
+  <si>
+    <t>kabag</t>
+  </si>
+  <si>
+    <t>pokja</t>
+  </si>
+  <si>
+    <t>PPK</t>
+  </si>
+  <si>
+    <t>KASUBAG</t>
+  </si>
+  <si>
+    <t>KABAG</t>
+  </si>
+  <si>
+    <t>POKJA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,6 +102,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,12 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -445,19 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -473,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -489,7 +453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -497,60 +461,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F902DFB-8B54-C54C-8272-BE13032C148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD20100-2DF7-D041-AA97-B989E3AE5747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12200" yWindow="1820" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>kabag</t>
   </si>
   <si>
-    <t>pokja</t>
-  </si>
-  <si>
     <t>PPK</t>
   </si>
   <si>
@@ -73,19 +70,29 @@
     <t>KABAG</t>
   </si>
   <si>
-    <t>POKJA</t>
+    <t>PPBJ</t>
+  </si>
+  <si>
+    <t>ppbj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,10 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +471,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -471,7 +479,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -479,18 +487,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
